--- a/Team5_A1_Task.xlsx
+++ b/Team5_A1_Task.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 1 2022-2023\Quản lý dự án phần mềm_Thầy Quang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C953D9F0-3E02-4B01-97F8-759853FE56A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="W7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>PHÂN CÔNG CÔNG VIỆC</t>
   </si>
@@ -83,9 +82,6 @@
     <t>Quản lý dự án phần mềm</t>
   </si>
   <si>
-    <t>Tuần 1</t>
-  </si>
-  <si>
     <t>197CT10003</t>
   </si>
   <si>
@@ -104,19 +100,16 @@
     <t>Lê Chí Huy</t>
   </si>
   <si>
-    <t>Tạo trang bìa cho Project Charter và phân công công   việc.</t>
-  </si>
-  <si>
-    <t>Cấu hình Project Charter Template .</t>
-  </si>
-  <si>
-    <t>Lên nội dung cấu trúc Project Charter.</t>
+    <t>Tuần 2</t>
+  </si>
+  <si>
+    <t>Tham gia trao đổi và hoàn thành nội dung Project Charter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,6 +471,9 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,9 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,11 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,14 +787,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -828,7 +821,7 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="22">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
@@ -840,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -858,24 +851,24 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
@@ -900,10 +893,10 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -912,16 +905,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="20">
         <v>0.33329999999999999</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -930,16 +923,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="20">
         <v>0.33329999999999999</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="13"/>
     </row>
